--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45863.37517840025</v>
+        <v>45863.37517840278</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -522,6 +522,42 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>09:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45863.41686092952</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="F3" t="n">
+        <v>462.3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>10:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45863.41686092952</v>
+        <v>45863.41686092593</v>
       </c>
       <c r="B3" t="n">
         <v>2025</v>
@@ -558,6 +558,42 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>10:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45863.45853578657</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="E4" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="F4" t="n">
+        <v>571.29</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>11:00:17</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45863.45853578657</v>
+        <v>45863.45853578704</v>
       </c>
       <c r="B4" t="n">
         <v>2025</v>
@@ -594,6 +594,42 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>11:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45863.54190494432</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="E5" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>611.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>13:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -1,46 +1,411 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F3DE6-5F44-4D17-A9A7-AE16EAF32B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>Humedad Relativa (%)</t>
+  </si>
+  <si>
+    <t>Radiación Solar (W/m²)</t>
+  </si>
+  <si>
+    <t>Velocidad de Viento Promedio (km/h)</t>
+  </si>
+  <si>
+    <t>Dirección de Viento Predominante</t>
+  </si>
+  <si>
+    <t>Precipitación (mm)</t>
+  </si>
+  <si>
+    <t>Hora de Ejecución</t>
+  </si>
+  <si>
+    <t>NNE</t>
+  </si>
+  <si>
+    <t>09:00:15</t>
+  </si>
+  <si>
+    <t>ESE</t>
+  </si>
+  <si>
+    <t>10:00:16</t>
+  </si>
+  <si>
+    <t>11:00:17</t>
+  </si>
+  <si>
+    <t>13:00:20</t>
+  </si>
+  <si>
+    <t>16:08:55</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,94 +414,237 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,216 +932,284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Temperatura (ºC)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Humedad Relativa (%)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Radiación Solar (W/m²)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Velocidad de Viento Promedio (km/h)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Dirección de Viento Predominante</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Precipitación (mm)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Hora de Ejecución</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45863.37517840278</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45863.333333333336</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45863.375178402777</v>
+      </c>
+      <c r="B3">
         <v>2025</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3">
         <v>14.78</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E3">
         <v>89.2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F3">
         <v>376.17</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>NNE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="G3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>09:00:15</t>
-        </is>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45863.41686092593</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45863.416860925929</v>
+      </c>
+      <c r="B4">
         <v>2025</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4">
         <v>16.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4">
         <v>82.47</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4">
         <v>462.3</v>
       </c>
-      <c r="G3" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="G4">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10:00:16</t>
-        </is>
+      <c r="J4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45863.45853578704</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45863.458535787038</v>
+      </c>
+      <c r="B5">
         <v>2025</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D4" t="n">
-        <v>17.67</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D5">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="E5">
         <v>78.55</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F5">
         <v>571.29</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5">
         <v>12.52</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>11:00:17</t>
-        </is>
+      <c r="J5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45863.54190494432</v>
-      </c>
-      <c r="B5" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45863.541904942133</v>
+      </c>
+      <c r="B6">
         <v>2025</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
-        <v>19.44</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="D6">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="E6">
         <v>74.63</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6">
         <v>611.72</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6">
         <v>10.73</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ESE</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>13:00:20</t>
-        </is>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45863.583333333336</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="4">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>72.53</v>
+      </c>
+      <c r="F7" s="4">
+        <v>344.53</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15.42</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45863.625</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2025</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>72.03</v>
+      </c>
+      <c r="F8" s="4">
+        <v>342.33</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13.41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45863.666666666664</v>
+      </c>
+      <c r="B9">
+        <v>2025</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>19.5</v>
+      </c>
+      <c r="E9">
+        <v>72.48</v>
+      </c>
+      <c r="F9">
+        <v>246.09</v>
+      </c>
+      <c r="G9">
+        <v>11.45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4F3DE6-5F44-4D17-A9A7-AE16EAF32B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB7173-C4AF-47AB-B695-79529D9BB977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="16260" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,10 @@
     <t>13:00:20</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>16:08:55</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -81,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,316 +96,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -428,212 +128,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,7 +443,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,17 +485,8 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45863.333333333336</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+        <v>45863.333333333343</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1118,67 +616,67 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45863.583333333336</v>
-      </c>
-      <c r="B7" s="4">
+        <v>45863.583333333343</v>
+      </c>
+      <c r="B7">
         <v>2025</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>20.190000000000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>72.53</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>344.53</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <v>15.42</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45863.625</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>2025</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>19.899999999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8">
         <v>72.03</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>342.33</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <v>13.41</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45863.666666666664</v>
+        <v>45863.666666666657</v>
       </c>
       <c r="B9">
         <v>2025</v>
@@ -1205,11 +703,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -1,105 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEB7173-C4AF-47AB-B695-79529D9BB977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="16260" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Sem</t>
-  </si>
-  <si>
-    <t>Temperatura (ºC)</t>
-  </si>
-  <si>
-    <t>Humedad Relativa (%)</t>
-  </si>
-  <si>
-    <t>Radiación Solar (W/m²)</t>
-  </si>
-  <si>
-    <t>Velocidad de Viento Promedio (km/h)</t>
-  </si>
-  <si>
-    <t>Dirección de Viento Predominante</t>
-  </si>
-  <si>
-    <t>Precipitación (mm)</t>
-  </si>
-  <si>
-    <t>Hora de Ejecución</t>
-  </si>
-  <si>
-    <t>NNE</t>
-  </si>
-  <si>
-    <t>09:00:15</t>
-  </si>
-  <si>
-    <t>ESE</t>
-  </si>
-  <si>
-    <t>10:00:16</t>
-  </si>
-  <si>
-    <t>11:00:17</t>
-  </si>
-  <si>
-    <t>13:00:20</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>16:08:55</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -439,271 +424,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Año</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sem</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Temperatura (ºC)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Humedad Relativa (%)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Radiación Solar (W/m²)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Velocidad de Viento Promedio (km/h)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dirección de Viento Predominante</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Precipitación (mm)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Hora de Ejecución</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45863.33333333334</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45863.37517840278</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>376.17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NNE</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>45863.333333333343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>45863.375178402777</v>
-      </c>
-      <c r="B3">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>09:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45863.41686092593</v>
+      </c>
+      <c r="B4" t="n">
         <v>2025</v>
       </c>
-      <c r="C3">
+      <c r="C4" t="n">
         <v>30</v>
       </c>
-      <c r="D3">
-        <v>14.78</v>
-      </c>
-      <c r="E3">
-        <v>89.2</v>
-      </c>
-      <c r="F3">
-        <v>376.17</v>
-      </c>
-      <c r="G3">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3">
+      <c r="D4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="F4" t="n">
+        <v>462.3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>45863.416860925929</v>
-      </c>
-      <c r="B4">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45863.45853578704</v>
+      </c>
+      <c r="B5" t="n">
         <v>2025</v>
       </c>
-      <c r="C4">
+      <c r="C5" t="n">
         <v>30</v>
       </c>
-      <c r="D4">
-        <v>16.5</v>
-      </c>
-      <c r="E4">
-        <v>82.47</v>
-      </c>
-      <c r="F4">
-        <v>462.3</v>
-      </c>
-      <c r="G4">
-        <v>8.5399999999999991</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4">
+      <c r="D5" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="E5" t="n">
+        <v>78.55</v>
+      </c>
+      <c r="F5" t="n">
+        <v>571.29</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45863.458535787038</v>
-      </c>
-      <c r="B5">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>11:00:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45863.54190494213</v>
+      </c>
+      <c r="B6" t="n">
         <v>2025</v>
       </c>
-      <c r="C5">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="E5">
-        <v>78.55</v>
-      </c>
-      <c r="F5">
-        <v>571.29</v>
-      </c>
-      <c r="G5">
-        <v>12.52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
+      <c r="D6" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="E6" t="n">
+        <v>74.63</v>
+      </c>
+      <c r="F6" t="n">
+        <v>611.72</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45863.541904942133</v>
-      </c>
-      <c r="B6">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>13:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45863.58333333334</v>
+      </c>
+      <c r="B7" t="n">
         <v>2025</v>
       </c>
-      <c r="C6">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="E6">
-        <v>74.63</v>
-      </c>
-      <c r="F6">
-        <v>611.72</v>
-      </c>
-      <c r="G6">
-        <v>10.73</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6">
+      <c r="D7" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>72.53</v>
+      </c>
+      <c r="F7" t="n">
+        <v>344.53</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>45863.583333333343</v>
-      </c>
-      <c r="B7">
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45863.625</v>
+      </c>
+      <c r="B8" t="n">
         <v>2025</v>
       </c>
-      <c r="C7">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="E7">
-        <v>72.53</v>
-      </c>
-      <c r="F7">
-        <v>344.53</v>
-      </c>
-      <c r="G7">
-        <v>15.42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="D8" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="F8" t="n">
+        <v>342.33</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45863.625</v>
-      </c>
-      <c r="B8">
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45863.66666666666</v>
+      </c>
+      <c r="B9" t="n">
         <v>2025</v>
       </c>
-      <c r="C8">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E8">
-        <v>72.03</v>
-      </c>
-      <c r="F8">
-        <v>342.33</v>
-      </c>
-      <c r="G8">
-        <v>13.41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8">
+      <c r="D9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>72.48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>246.09</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45863.666666666657</v>
-      </c>
-      <c r="B9">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>16:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45863.70854388389</v>
+      </c>
+      <c r="B10" t="n">
         <v>2025</v>
       </c>
-      <c r="C9">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9">
-        <v>19.5</v>
-      </c>
-      <c r="E9">
-        <v>72.48</v>
-      </c>
-      <c r="F9">
-        <v>246.09</v>
-      </c>
-      <c r="G9">
-        <v>11.45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9">
+      <c r="D10" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>121.29</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>17</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>17:00:18</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45863.70854388389</v>
+        <v>45863.70854388889</v>
       </c>
       <c r="B10" t="n">
         <v>2025</v>
@@ -780,6 +780,42 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>17:00:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45863.75018738768</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>18:00:16</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45863.75018738768</v>
+        <v>45863.75018738426</v>
       </c>
       <c r="B11" t="n">
         <v>2025</v>
@@ -816,6 +816,42 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>18:00:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45863.79191518768</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E12" t="n">
+        <v>81.63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>19:00:21</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45863.79191518768</v>
+        <v>45863.79191518518</v>
       </c>
       <c r="B12" t="n">
         <v>2025</v>
@@ -852,6 +852,42 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>19:00:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45863.83357264067</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>85.37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>20:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,7 +857,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45863.83357264067</v>
+        <v>45863.83357263889</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -888,6 +888,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>20:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45863.87523748419</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>88.92</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>21:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +893,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45863.87523748419</v>
+        <v>45863.87523748843</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -924,6 +924,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>21:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45863.9169284381</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="E15" t="n">
+        <v>89.84999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ENE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>22:00:22</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-25.xlsx
+++ b/datos_dropcontrol/2025-07-25.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,7 +929,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45863.9169284381</v>
+        <v>45863.9169284375</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -960,6 +960,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>22:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45863.95854514534</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="E16" t="n">
+        <v>89.66</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>NNW</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>23:00:18</t>
         </is>
       </c>
     </row>
